--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>275920.0516693599</v>
+        <v>289646.4098067779</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26316,7 @@
         <v>491565.8032302228</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.8032302229</v>
+        <v>491565.803230223</v>
       </c>
       <c r="D2" t="n">
         <v>491565.803230223</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>457775.3608255374</v>
+        <v>457775.3608255375</v>
       </c>
       <c r="C4" t="n">
-        <v>457775.3608255374</v>
+        <v>457775.3608255375</v>
       </c>
       <c r="D4" t="n">
-        <v>457775.3608255374</v>
+        <v>457775.3608255375</v>
       </c>
       <c r="E4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="F4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="G4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="H4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="I4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="J4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="K4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="L4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="M4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="N4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="O4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
       <c r="P4" t="n">
-        <v>66894.91200377974</v>
+        <v>66894.91200377973</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.8424046854489</v>
+        <v>162.8424046853688</v>
       </c>
       <c r="C6" t="n">
-        <v>162.8424046855071</v>
+        <v>162.8424046854852</v>
       </c>
       <c r="D6" t="n">
-        <v>162.8424046856235</v>
+        <v>162.8424046854852</v>
       </c>
       <c r="E6" t="n">
-        <v>-66421.86632895176</v>
+        <v>-66421.8663289518</v>
       </c>
       <c r="F6" t="n">
-        <v>66678.13367104824</v>
+        <v>66678.13367104826</v>
       </c>
       <c r="G6" t="n">
-        <v>66678.13367104824</v>
+        <v>66678.13367104826</v>
       </c>
       <c r="H6" t="n">
-        <v>66678.13367104824</v>
+        <v>66678.13367104826</v>
       </c>
       <c r="I6" t="n">
-        <v>66678.13367104824</v>
+        <v>66678.13367104826</v>
       </c>
       <c r="J6" t="n">
-        <v>66678.13367104824</v>
+        <v>66678.13367104826</v>
       </c>
       <c r="K6" t="n">
-        <v>66678.13367104824</v>
+        <v>66678.13367104826</v>
       </c>
       <c r="L6" t="n">
-        <v>66678.13367104824</v>
+        <v>66678.13367104826</v>
       </c>
       <c r="M6" t="n">
-        <v>66678.13367104824</v>
+        <v>66678.13367104826</v>
       </c>
       <c r="N6" t="n">
-        <v>66678.13367104824</v>
+        <v>66678.13367104826</v>
       </c>
       <c r="O6" t="n">
-        <v>66678.13367104824</v>
+        <v>66678.13367104826</v>
       </c>
       <c r="P6" t="n">
-        <v>66678.13367104824</v>
+        <v>66678.13367104826</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_21_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>289646.4098067779</v>
+        <v>205861.0080451528</v>
       </c>
     </row>
     <row r="7">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>491565.8032302229</v>
+      </c>
+      <c r="C2" t="n">
         <v>491565.8032302228</v>
       </c>
-      <c r="C2" t="n">
-        <v>491565.803230223</v>
-      </c>
       <c r="D2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302228</v>
       </c>
       <c r="E2" t="n">
         <v>137184.6577798363</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162.8424046853688</v>
+        <v>118.7066260043025</v>
       </c>
       <c r="C6" t="n">
-        <v>162.8424046854852</v>
+        <v>118.7066260042443</v>
       </c>
       <c r="D6" t="n">
-        <v>162.8424046854852</v>
+        <v>118.7066260041861</v>
       </c>
       <c r="E6" t="n">
-        <v>-66421.8663289518</v>
+        <v>-81231.8831680657</v>
       </c>
       <c r="F6" t="n">
-        <v>66678.13367104826</v>
+        <v>51868.11683193436</v>
       </c>
       <c r="G6" t="n">
-        <v>66678.13367104826</v>
+        <v>51868.11683193436</v>
       </c>
       <c r="H6" t="n">
-        <v>66678.13367104826</v>
+        <v>51868.11683193436</v>
       </c>
       <c r="I6" t="n">
-        <v>66678.13367104826</v>
+        <v>51868.11683193436</v>
       </c>
       <c r="J6" t="n">
-        <v>66678.13367104826</v>
+        <v>51868.11683193436</v>
       </c>
       <c r="K6" t="n">
-        <v>66678.13367104826</v>
+        <v>51868.11683193436</v>
       </c>
       <c r="L6" t="n">
-        <v>66678.13367104826</v>
+        <v>51868.11683193436</v>
       </c>
       <c r="M6" t="n">
-        <v>66678.13367104826</v>
+        <v>51868.11683193436</v>
       </c>
       <c r="N6" t="n">
-        <v>66678.13367104826</v>
+        <v>51868.11683193436</v>
       </c>
       <c r="O6" t="n">
-        <v>66678.13367104826</v>
+        <v>51868.11683193436</v>
       </c>
       <c r="P6" t="n">
-        <v>66678.13367104826</v>
+        <v>51868.11683193436</v>
       </c>
     </row>
   </sheetData>
